--- a/athletes/NadiJahangiri/activity_overrides.xlsx
+++ b/athletes/NadiJahangiri/activity_overrides.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>539660382.fit</t>
+          <t>1500818056.fit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -469,14 +469,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chichester 10km</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>572595843.fit</t>
+          <t>1572914017.fit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -485,38 +485,38 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>21.097</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hyde Park Last Friday 5km</t>
+          <t>HM effort</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>759980679.fit</t>
+          <t>1585375831.fit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.95</v>
+      </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Serpentine Last Friday 5km</t>
+          <t>Middlesex County XC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>804467059.fit</t>
+          <t>1605751271.fit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -529,20 +529,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Serpentine Last Friday 5km</t>
+          <t>5K Track PB 18:37.9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>807034319.fit</t>
+          <t>1670435846.fit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>0.92</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>1</v>
       </c>
@@ -551,34 +549,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Titsey 10K Trail Race</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>822949113.fit</t>
+          <t>1706375634.fit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>0.95</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Surrey League 1 Richmond Park</t>
+          <t>Crouch End 10K</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>838958533.fit</t>
+          <t>1797159027.fit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -587,38 +585,38 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Burgess Parkrun Dulwich 5km Champs</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>855639647.fit</t>
+          <t>1946837478.fit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>0.95</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Surrey League XC Farthing Down</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>869316237.fit</t>
+          <t>2008613895.fit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -627,18 +625,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>21.097</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Serpentine Last Friday B Course</t>
+          <t>Ealing Half Marathon 1:24:46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>971231943.fit</t>
+          <t>2023983495.fit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -647,18 +645,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Serpentine Last Friday 5K</t>
+          <t>Regents Park 10K 39:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1395225722.fit</t>
+          <t>2083201836.fit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -667,38 +665,38 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LFOTM 5k</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1464103686.fit</t>
+          <t>2331675569.fit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>0.95</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Surrey League XC Beckenham</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1522084111.fit</t>
+          <t>2493018022.fit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -707,18 +705,18 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Last Friday 5K</t>
+          <t>Regents Park 10K 39:02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1582735623.fit</t>
+          <t>2531215860.fit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -727,18 +725,18 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>21.097</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Run Through 10K Hyde Park 37:14</t>
+          <t>Hackney Half Marathon 1:24:28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1611457898.fit</t>
+          <t>2569291120.fit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -747,18 +745,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>21.097</v>
+        <v>10</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Paddock Wood HM 1:21:33</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1651586882.fit</t>
+          <t>3087229596.fit</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -767,18 +765,18 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Last Friday 5km 17:39</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1793113531.fit</t>
+          <t>3106487232.fit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -787,18 +785,18 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>21.097</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Serpie Last Friday 5km</t>
+          <t>MK Half Marathon</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1805113436.fit</t>
+          <t>3359297618.fit</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -811,54 +809,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Reigate Priory 10K</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2008479947.fit</t>
+          <t>3382784997.fit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0.95</v>
+      </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
-        <v>10</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Middlesex 10K 36:10 PB</t>
+          <t>Middlesex County Masters XC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2093079268.fit</t>
+          <t>3616687840.fit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>0.95</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Surrey League Div2 Nork Park</t>
+          <t>10K Time Trial Regents Park</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2130251325.fit</t>
+          <t>3889752555.fit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -871,14 +869,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LFotM 5K</t>
+          <t>British Masters Virtual 5K Relays</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2179835540.fit</t>
+          <t>4038603423.fit</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -891,14 +889,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Last Friday 5K</t>
+          <t>Speed Club 5K Emirates</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2245109532.fit</t>
+          <t>4261932589.fit</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -911,14 +909,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hyde Park Last Friday 5km</t>
+          <t>Soar X Tour 5K</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2468959702.fit</t>
+          <t>4406681926.fit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -931,14 +929,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LFotM 5km April</t>
+          <t>Milton Keynes 5K</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2592976064.fit</t>
+          <t>4703882224.fit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -951,14 +949,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sri Chinmoy 5K Battersea</t>
+          <t>HiFi Speed Club Virtual 5K</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2642050818.fit</t>
+          <t>5444094444.fit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -971,14 +969,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Last Friday 5km</t>
+          <t>Vets AC 5K Wimbledon</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3264802471.fit</t>
+          <t>5570309273.fit</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -987,18 +985,18 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Serpentine LFotM 5km</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6705636447.fit</t>
+          <t>5666332789.fit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1011,14 +1009,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Last Friday 5km</t>
+          <t>VAC 5K Battersea</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8746819402.fit</t>
+          <t>5772757689.fit</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1027,18 +1025,18 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LFotM</t>
+          <t>Regents Park 10K SB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9933956697.fit</t>
+          <t>5823295220.fit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1051,14 +1049,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sri Chinmoy Battersea 5K</t>
+          <t>Dashing Deer 5K SB</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11374115356.fit</t>
+          <t>5862166181.fit</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1071,14 +1069,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Last Friday 5km Hyde Park 19:28</t>
+          <t>Kangaroo Hop 5K 18:43</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11628971697.fit</t>
+          <t>6026373364.fit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1087,18 +1085,18 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>21.097</v>
+        <v>5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Paddock Wood Half 2024</t>
+          <t>VAC V60 5K</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12038014011.fit</t>
+          <t>6084328296.fit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1107,18 +1105,18 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HP Last Friday 5km</t>
+          <t>Regents Park 10K</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>14674260528.fit</t>
+          <t>7022028078.fit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1127,11 +1125,631 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LFotM</t>
+          <t>Brockwell Park 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7100174906.fit</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Victoria Park 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7175007872.fit</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21.097</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Wokingham Half</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7369241441.fit</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21.097</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Manchester Marathon relay leg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8791834007.fit</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>British Masters 5K Championships</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>9810747532.fit</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LFotM 5K - 19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>9862832241.fit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Midsummer 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11049797541.fit</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>British Masters 5km Road Championships</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>11083391449.fit</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SEAA Cross Country Championships</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11207738339.fit</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Serpentine New Years Day 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>11857338020.fit</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vets AC 5K Battersea</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12099579301.fit</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lordship Parkrun 19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12127945919.fit</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.047000000000001</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>VAC 5-Mile Road Championships</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12317528092.fit</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LFOTM 5K in 19:35 (SB) un-o'fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12353423466.fit</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Vets Road 5K 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12410211727.fit</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sri Chinmoy 5K 19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>13299326290.fit</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Vitality 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>13474021992.fit</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Met League #1 Claybury</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>13714235785.fit</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Met League #2 Horsenden Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>13887924993.fit</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>British Masters 5K 19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>14153725658.fit</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Mornington Chasers 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>14213267608.fit</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Met League #4 Welwyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14286846559.fit</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Brahmas Boys 5K</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>14410524311.fit</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lordship Rec Parkrun raced</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14545524650.fit</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Lordship Rec Parkrun</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>14614104965.fit</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Dulwich Parkrun 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15623558502.fit</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Last Friday Of The Month 5K in 20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15829085125.fit</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sri Chinmoy 5K in 19:39 chip time</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>16066992582.fit</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vets 5K 19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>16842536520.fit</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>VAC 10000m Championships</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>17561302622.fit</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Brighton 10K</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>17697378340.fit</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Vets 5K Road Championships</t>
         </is>
       </c>
     </row>

--- a/athletes/NadiJahangiri/activity_overrides.xlsx
+++ b/athletes/NadiJahangiri/activity_overrides.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overrides" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,34 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>temp_override</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>surface_adj</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>race_flag</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>official_distance_km</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>parkrun</t>
         </is>
       </c>
     </row>
@@ -472,6 +489,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,6 +512,9 @@
           <t>HM effort</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,6 +535,9 @@
           <t>Middlesex County XC</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -532,6 +558,9 @@
           <t>5K Track PB 18:37.9</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -572,6 +604,9 @@
           <t>Crouch End 10K</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +627,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -612,6 +650,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -632,6 +673,9 @@
           <t>Ealing Half Marathon 1:24:46</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -652,6 +696,9 @@
           <t>Regents Park 10K 39:01</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -672,6 +719,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -692,6 +742,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -712,6 +765,9 @@
           <t>Regents Park 10K 39:02</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -732,6 +788,9 @@
           <t>Hackney Half Marathon 1:24:28</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -752,6 +811,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -772,6 +834,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -792,6 +857,9 @@
           <t>MK Half Marathon</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -812,6 +880,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -832,6 +903,9 @@
           <t>Middlesex County Masters XC</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -852,6 +926,9 @@
           <t>10K Time Trial Regents Park</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -872,6 +949,9 @@
           <t>British Masters Virtual 5K Relays</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -892,6 +972,9 @@
           <t>Speed Club 5K Emirates</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -912,6 +995,9 @@
           <t>Soar X Tour 5K</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -932,6 +1018,9 @@
           <t>Milton Keynes 5K</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -952,6 +1041,9 @@
           <t>HiFi Speed Club Virtual 5K</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -972,6 +1064,9 @@
           <t>Vets AC 5K Wimbledon</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -992,6 +1087,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1012,6 +1110,9 @@
           <t>VAC 5K Battersea</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1032,6 +1133,9 @@
           <t>Regents Park 10K SB</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1052,6 +1156,9 @@
           <t>Dashing Deer 5K SB</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1072,6 +1179,9 @@
           <t>Kangaroo Hop 5K 18:43</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1092,6 +1202,9 @@
           <t>VAC V60 5K</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1112,6 +1225,9 @@
           <t>Regents Park 10K</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1132,6 +1248,9 @@
           <t>Brockwell Park 10K</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1152,6 +1271,9 @@
           <t>Victoria Park 10K</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1172,6 +1294,9 @@
           <t>Wokingham Half</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1192,6 +1317,9 @@
           <t>Manchester Marathon relay leg</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1212,6 +1340,9 @@
           <t>British Masters 5K Championships</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1232,6 +1363,9 @@
           <t>LFotM 5K - 19:57</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1252,6 +1386,9 @@
           <t>Midsummer 10K</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1272,6 +1409,9 @@
           <t>British Masters 5km Road Championships</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1292,6 +1432,9 @@
           <t>SEAA Cross Country Championships</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1312,6 +1455,9 @@
           <t>Serpentine New Years Day 10K</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1332,6 +1478,9 @@
           <t>Vets AC 5K Battersea</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1352,6 +1501,9 @@
           <t>Lordship Parkrun 19:50</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1372,6 +1524,9 @@
           <t>VAC 5-Mile Road Championships</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1392,6 +1547,9 @@
           <t>LFOTM 5K in 19:35 (SB) un-o'fish</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1412,6 +1570,9 @@
           <t>Vets Road 5K 19:33</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1432,6 +1593,9 @@
           <t>Sri Chinmoy 5K 19:19</t>
         </is>
       </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1452,6 +1616,9 @@
           <t>Vitality 10K</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1472,6 +1639,9 @@
           <t>Met League #1 Claybury</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1492,6 +1662,9 @@
           <t>Met League #2 Horsenden Hill</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1512,6 +1685,9 @@
           <t>British Masters 5K 19:33</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1532,6 +1708,9 @@
           <t>Mornington Chasers 10K</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1552,6 +1731,9 @@
           <t>Met League #4 Welwyn</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1572,6 +1754,9 @@
           <t>Brahmas Boys 5K</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1592,6 +1777,9 @@
           <t>Lordship Rec Parkrun raced</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1612,6 +1800,9 @@
           <t>Lordship Rec Parkrun</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1632,6 +1823,9 @@
           <t>Dulwich Parkrun 19:32</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1652,6 +1846,9 @@
           <t>Last Friday Of The Month 5K in 20:12</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1672,6 +1869,9 @@
           <t>Sri Chinmoy 5K in 19:39 chip time</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1692,6 +1892,9 @@
           <t>Vets 5K 19:23</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1712,6 +1915,9 @@
           <t>VAC 10000m Championships</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1732,6 +1938,9 @@
           <t>Brighton 10K</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1751,6 +1960,9 @@
         <is>
           <t>Vets 5K Road Championships</t>
         </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
